--- a/fortunella/cz/_Fortunella CZ.xlsx
+++ b/fortunella/cz/_Fortunella CZ.xlsx
@@ -283,7 +283,18 @@
     <t>35 let</t>
   </si>
   <si>
-    <t>Chci zanechat komentář. Obecně jsem si myslela, že je to všechno lež. Protože mám pochybnosti o nakupování jakýchkoli prostředků na hubnutí na internetu. Ale můj manžel navrhl, abych vyzkoušela Fortunellu. Skvělá cena + rychlé dodání. Jsem si objednal Fortunella kapky z tohoto webu a co si myslíte? Po týdnu odběru mě začali moje kilogramy opustit. Můj manžel byl neuvěřitelně šťastný, že mi je doporučil a řekl, co bych bez něj udělala. To je pravda))). Super kapky dívky bez nadsázky. Jsem velmi ráda, že pro mě všechno fungovalo.</t>
+    <r>
+      <t xml:space="preserve">Chci zanechat komentář. Obecně jsem si myslela, že je to všechno lež. Protože mám pochybnosti o nakupování jakýchkoli prostředků na hubnutí na internetu. Ale můj manžel navrhl, abych vyzkoušela Fortunellu. Skvělá cena + rychlé dodání. Jsem si </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>objednala</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> Fortunella kapky z tohoto webu a co si myslíte? Po týdnu odběru mě začali moje kilogramy opustit. Můj manžel byl neuvěřitelně šťastný, že mi je doporučil a řekl, co bych bez něj udělala. To je pravda))). Super kapky dívky bez nadsázky. Jsem velmi ráda, že pro mě všechno fungovalo.</t>
+    </r>
   </si>
   <si>
     <t>Аnnа</t>
